--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="82">
   <si>
     <t>FECHA</t>
   </si>
@@ -218,9 +218,6 @@
     <t>GRANUL</t>
   </si>
   <si>
-    <t>ID_RESULTADOS</t>
-  </si>
-  <si>
     <t>POLVO LIJADO</t>
   </si>
   <si>
@@ -246,6 +243,36 @@
   </si>
   <si>
     <t>RESULTADOS (ensayos_muestras+resultado)</t>
+  </si>
+  <si>
+    <t>URK</t>
+  </si>
+  <si>
+    <t>23,141T</t>
+  </si>
+  <si>
+    <t>GRANALLA</t>
+  </si>
+  <si>
+    <t>GALICIA</t>
+  </si>
+  <si>
+    <t>URIKE</t>
+  </si>
+  <si>
+    <t>&lt;500</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO</t>
+  </si>
+  <si>
+    <t>NORMA</t>
+  </si>
+  <si>
+    <t>EQUIPO 1-5</t>
+  </si>
+  <si>
+    <t>EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -277,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +341,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -351,37 +384,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,16 +455,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,13 +1107,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>785813</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1145,13 +1161,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>188819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1217,13 +1233,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>286870</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>629771</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>173131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1656,8 +1672,8 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1740,11 +1756,11 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2071,18 +2087,18 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
@@ -2187,16 +2203,16 @@
       <c r="AC20" s="11"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -2297,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC54"/>
+  <dimension ref="A2:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,7 +2332,9 @@
     <col min="9" max="9" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="1"/>
+    <col min="12" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -2325,84 +2343,84 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -2474,8 +2492,8 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
       <c r="H10" s="12">
         <v>44962</v>
@@ -2520,13 +2538,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
+      <c r="G11" s="1">
+        <v>1</v>
       </c>
       <c r="H11" s="12">
         <v>44963</v>
@@ -2538,24 +2556,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>45006</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="G14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="23"/>
       <c r="K14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="Q14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
@@ -2565,20 +2611,16 @@
         <v>46</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="G15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="23"/>
       <c r="K15" s="15" t="s">
         <v>26</v>
       </c>
@@ -2586,12 +2628,21 @@
         <v>45</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="R15" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2605,35 +2656,33 @@
       <c r="D16" s="22">
         <v>1</v>
       </c>
-      <c r="E16" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="21">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="K16" s="25">
+        <v>1</v>
+      </c>
+      <c r="L16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="M16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>1</v>
+      </c>
+      <c r="R16" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>2</v>
       </c>
@@ -2647,31 +2696,29 @@
         <v>34</v>
       </c>
       <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="K17" s="25">
         <v>2</v>
       </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="L17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="26">
         <v>2</v>
       </c>
-      <c r="K17" s="21">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R17" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>3</v>
       </c>
@@ -2684,32 +2731,30 @@
       <c r="E18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="23">
+        <v>2</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="K18" s="25">
         <v>3</v>
       </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="L18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="26">
         <v>3</v>
       </c>
-      <c r="K18" s="21">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O18" s="1">
-        <v>3</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R18" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>4</v>
       </c>
@@ -2722,26 +2767,26 @@
       <c r="E19" s="1">
         <v>340</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="K19" s="25">
         <v>4</v>
       </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="L19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="26">
         <v>4</v>
       </c>
-      <c r="K19" s="21">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R19" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -2751,345 +2796,411 @@
       <c r="D20" s="22">
         <v>2</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="22">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="21">
+        <v>4</v>
+      </c>
+      <c r="D22" s="22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="24">
+        <v>330</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="K22" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2</v>
+      </c>
+      <c r="D23" s="22">
+        <v>3</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="K23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="21">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="21">
+        <v>4</v>
+      </c>
+      <c r="D25" s="22">
+        <v>3</v>
+      </c>
+      <c r="E25" s="24">
+        <v>350</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12">
+        <v>44962</v>
+      </c>
+      <c r="I34" s="12">
+        <v>44974</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B38" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="13">
         <v>0.02</v>
       </c>
-      <c r="G20" s="1">
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1">
+        <v>340</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="22">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B46" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12">
-        <v>44962</v>
-      </c>
-      <c r="I28" s="12">
-        <v>44974</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1">
-        <v>25</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
+      <c r="C59" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1">
-        <v>340</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="24"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B3:O6"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="G14:H14"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3120,118 +3231,118 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla principal" sheetId="2" r:id="rId1"/>
@@ -464,6 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,9 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:U2"/>
     </sheetView>
   </sheetViews>
@@ -1672,8 +1672,8 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1756,11 +1756,11 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2087,18 +2087,18 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
@@ -2203,16 +2203,16 @@
       <c r="AC20" s="11"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -2315,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,84 +2343,84 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -2586,12 +2586,12 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="23"/>
@@ -2616,10 +2616,10 @@
       <c r="E15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="23"/>
       <c r="K15" s="15" t="s">
         <v>26</v>
@@ -2630,13 +2630,13 @@
       <c r="M15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="27" t="s">
         <v>80</v>
       </c>
       <c r="Q15" s="15" t="s">
@@ -2836,7 +2836,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="27" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2856,10 +2856,10 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="27" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2899,18 +2899,18 @@
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
@@ -3015,16 +3015,16 @@
       <c r="AC34" s="11"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
@@ -3147,10 +3147,10 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
@@ -3169,10 +3169,10 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="28"/>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="15" t="s">
@@ -3231,118 +3231,118 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
